--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N2">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O2">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P2">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q2">
-        <v>48.21782294555555</v>
+        <v>73.753008008265</v>
       </c>
       <c r="R2">
-        <v>433.9604065099999</v>
+        <v>663.777072074385</v>
       </c>
       <c r="S2">
-        <v>0.005090363801609236</v>
+        <v>0.01792256331058339</v>
       </c>
       <c r="T2">
-        <v>0.005090363801609235</v>
+        <v>0.01792256331058339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.568944</v>
       </c>
       <c r="O3">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P3">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q3">
-        <v>99.8061060304</v>
+        <v>132.14285845992</v>
       </c>
       <c r="R3">
-        <v>898.2549542736</v>
+        <v>1189.28572613928</v>
       </c>
       <c r="S3">
-        <v>0.01053654765563302</v>
+        <v>0.03211175802516383</v>
       </c>
       <c r="T3">
-        <v>0.01053654765563302</v>
+        <v>0.03211175802516384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N4">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O4">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P4">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q4">
-        <v>9.394668461366665</v>
+        <v>19.663356316725</v>
       </c>
       <c r="R4">
-        <v>84.5520161523</v>
+        <v>176.970206850525</v>
       </c>
       <c r="S4">
-        <v>0.0009917967536165753</v>
+        <v>0.004778350849711385</v>
       </c>
       <c r="T4">
-        <v>0.0009917967536165753</v>
+        <v>0.004778350849711385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N5">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O5">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P5">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q5">
-        <v>21.41008391756667</v>
+        <v>38.54197086102</v>
       </c>
       <c r="R5">
-        <v>192.6907552581</v>
+        <v>346.87773774918</v>
       </c>
       <c r="S5">
-        <v>0.002260266214973172</v>
+        <v>0.00936600325228608</v>
       </c>
       <c r="T5">
-        <v>0.002260266214973172</v>
+        <v>0.00936600325228608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N6">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O6">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P6">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q6">
-        <v>13.15663700492222</v>
+        <v>22.68525980871</v>
       </c>
       <c r="R6">
-        <v>118.4097330443</v>
+        <v>204.16733827839</v>
       </c>
       <c r="S6">
-        <v>0.001388948415120051</v>
+        <v>0.005512697259657198</v>
       </c>
       <c r="T6">
-        <v>0.001388948415120051</v>
+        <v>0.005512697259657198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N7">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O7">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P7">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q7">
-        <v>262.3222213007001</v>
+        <v>303.054429192009</v>
       </c>
       <c r="R7">
-        <v>2360.8999917063</v>
+        <v>2727.489862728081</v>
       </c>
       <c r="S7">
-        <v>0.02769340169452616</v>
+        <v>0.07364461925590642</v>
       </c>
       <c r="T7">
-        <v>0.02769340169452616</v>
+        <v>0.07364461925590643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>9.568944</v>
       </c>
       <c r="O8">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P8">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q8">
-        <v>542.9809525583521</v>
+        <v>542.980952558352</v>
       </c>
       <c r="R8">
-        <v>4886.828573025169</v>
+        <v>4886.828573025167</v>
       </c>
       <c r="S8">
-        <v>0.05732259187618723</v>
+        <v>0.1319486589289671</v>
       </c>
       <c r="T8">
-        <v>0.05732259187618724</v>
+        <v>0.1319486589289672</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,43 +977,43 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N9">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O9">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P9">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q9">
-        <v>51.110360207511</v>
+        <v>80.79761606328499</v>
       </c>
       <c r="R9">
-        <v>459.9932418675991</v>
+        <v>727.1785445695649</v>
       </c>
       <c r="S9">
-        <v>0.005395729454257829</v>
+        <v>0.0196344586932123</v>
       </c>
       <c r="T9">
-        <v>0.005395729454257829</v>
+        <v>0.0196344586932123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N10">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O10">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P10">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q10">
-        <v>116.478522430017</v>
+        <v>158.370692866012</v>
       </c>
       <c r="R10">
-        <v>1048.306701870153</v>
+        <v>1425.336235794108</v>
       </c>
       <c r="S10">
-        <v>0.01229665750177424</v>
+        <v>0.03848532888467378</v>
       </c>
       <c r="T10">
-        <v>0.01229665750177425</v>
+        <v>0.03848532888467379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N11">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O11">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P11">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q11">
-        <v>71.57681606395101</v>
+        <v>93.214753513926</v>
       </c>
       <c r="R11">
-        <v>644.1913445755591</v>
+        <v>838.932781625334</v>
       </c>
       <c r="S11">
-        <v>0.007556376693692317</v>
+        <v>0.02265192114125767</v>
       </c>
       <c r="T11">
-        <v>0.007556376693692319</v>
+        <v>0.02265192114125768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N12">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O12">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P12">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q12">
-        <v>930.7076719279444</v>
+        <v>435.4045195228333</v>
       </c>
       <c r="R12">
-        <v>8376.3690473515</v>
+        <v>3918.6406757055</v>
       </c>
       <c r="S12">
-        <v>0.09825496784480396</v>
+        <v>0.1058067362620333</v>
       </c>
       <c r="T12">
-        <v>0.09825496784480396</v>
+        <v>0.1058067362620333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.568944</v>
       </c>
       <c r="O13">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P13">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q13">
-        <v>1926.47247248456</v>
+        <v>780.111880856</v>
       </c>
       <c r="R13">
-        <v>17338.25225236104</v>
+        <v>7021.006927703999</v>
       </c>
       <c r="S13">
-        <v>0.2033780278675139</v>
+        <v>0.189573346925906</v>
       </c>
       <c r="T13">
-        <v>0.2033780278675139</v>
+        <v>0.1895733469259061</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N14">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O14">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P14">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q14">
-        <v>181.3373038862883</v>
+        <v>116.0835936119444</v>
       </c>
       <c r="R14">
-        <v>1632.035734976595</v>
+        <v>1044.7523425075</v>
       </c>
       <c r="S14">
-        <v>0.01914381013482193</v>
+        <v>0.02820922986079373</v>
       </c>
       <c r="T14">
-        <v>0.01914381013482193</v>
+        <v>0.02820922986079373</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N15">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O15">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P15">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q15">
-        <v>413.2606605072183</v>
+        <v>227.5344254748889</v>
       </c>
       <c r="R15">
-        <v>3719.345944564965</v>
+        <v>2047.809829274</v>
       </c>
       <c r="S15">
-        <v>0.04362799849446478</v>
+        <v>0.0552926620356138</v>
       </c>
       <c r="T15">
-        <v>0.04362799849446479</v>
+        <v>0.05529266203561381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N16">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O16">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P16">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q16">
-        <v>253.9513866289328</v>
+        <v>133.9235498863333</v>
       </c>
       <c r="R16">
-        <v>2285.562479660395</v>
+        <v>1205.311948977</v>
       </c>
       <c r="S16">
-        <v>0.02680969124889835</v>
+        <v>0.03254448010238311</v>
       </c>
       <c r="T16">
-        <v>0.02680969124889836</v>
+        <v>0.03254448010238311</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N17">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O17">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P17">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q17">
-        <v>66.97625519258887</v>
+        <v>43.03420541252701</v>
       </c>
       <c r="R17">
-        <v>602.7862967332999</v>
+        <v>387.3078487127431</v>
       </c>
       <c r="S17">
-        <v>0.007070694696951727</v>
+        <v>0.01045765171964557</v>
       </c>
       <c r="T17">
-        <v>0.007070694696951727</v>
+        <v>0.01045765171964557</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.568944</v>
       </c>
       <c r="O18">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P18">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q18">
-        <v>138.634198288432</v>
+        <v>77.10414894705602</v>
       </c>
       <c r="R18">
-        <v>1247.707784595888</v>
+        <v>693.9373405235041</v>
       </c>
       <c r="S18">
-        <v>0.01463563598525342</v>
+        <v>0.01873691701981026</v>
       </c>
       <c r="T18">
-        <v>0.01463563598525343</v>
+        <v>0.01873691701981027</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N19">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O19">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P19">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q19">
-        <v>13.04952554636766</v>
+        <v>11.473388512355</v>
       </c>
       <c r="R19">
-        <v>117.445729917309</v>
+        <v>103.260496611195</v>
       </c>
       <c r="S19">
-        <v>0.001377640640151046</v>
+        <v>0.002788124004061758</v>
       </c>
       <c r="T19">
-        <v>0.001377640640151046</v>
+        <v>0.002788124004061758</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N20">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O20">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P20">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q20">
-        <v>29.73936101961366</v>
+        <v>22.488887380036</v>
       </c>
       <c r="R20">
-        <v>267.654249176523</v>
+        <v>202.399986420324</v>
       </c>
       <c r="S20">
-        <v>0.003139589420869609</v>
+        <v>0.005464977208903902</v>
       </c>
       <c r="T20">
-        <v>0.003139589420869609</v>
+        <v>0.005464977208903902</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N21">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O21">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P21">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q21">
-        <v>18.27503241929655</v>
+        <v>13.236641552778</v>
       </c>
       <c r="R21">
-        <v>164.475291773669</v>
+        <v>119.129773975002</v>
       </c>
       <c r="S21">
-        <v>0.001929298292987263</v>
+        <v>0.003216608415789324</v>
       </c>
       <c r="T21">
-        <v>0.001929298292987263</v>
+        <v>0.003216608415789324</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N22">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O22">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P22">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q22">
-        <v>1070.797466791133</v>
+        <v>203.0341551211174</v>
       </c>
       <c r="R22">
-        <v>9637.177201120199</v>
+        <v>1827.307396090056</v>
       </c>
       <c r="S22">
-        <v>0.1130442714089992</v>
+        <v>0.04933890288191702</v>
       </c>
       <c r="T22">
-        <v>0.1130442714089992</v>
+        <v>0.04933890288191702</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.568944</v>
       </c>
       <c r="O23">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P23">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q23">
-        <v>2216.444438570208</v>
+        <v>363.775178087552</v>
       </c>
       <c r="R23">
-        <v>19947.99994713187</v>
+        <v>3273.976602787968</v>
       </c>
       <c r="S23">
-        <v>0.2339904178402117</v>
+        <v>0.08840024069746784</v>
       </c>
       <c r="T23">
-        <v>0.2339904178402117</v>
+        <v>0.08840024069746785</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N24">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O24">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P24">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q24">
-        <v>208.632131756194</v>
+        <v>54.13112013227111</v>
       </c>
       <c r="R24">
-        <v>1877.689185805746</v>
+        <v>487.18008119044</v>
       </c>
       <c r="S24">
-        <v>0.02202532977367011</v>
+        <v>0.01315428961941056</v>
       </c>
       <c r="T24">
-        <v>0.02202532977367011</v>
+        <v>0.01315428961941056</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N25">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O25">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P25">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q25">
-        <v>475.464511299118</v>
+        <v>106.1019299659342</v>
       </c>
       <c r="R25">
-        <v>4279.180601692063</v>
+        <v>954.9173696934081</v>
       </c>
       <c r="S25">
-        <v>0.0501948696439424</v>
+        <v>0.02578360677813223</v>
       </c>
       <c r="T25">
-        <v>0.0501948696439424</v>
+        <v>0.02578360677813223</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N26">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O26">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P26">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q26">
-        <v>292.1760609612874</v>
+        <v>62.45009774310934</v>
       </c>
       <c r="R26">
-        <v>2629.584548651586</v>
+        <v>562.050879687984</v>
       </c>
       <c r="S26">
-        <v>0.03084507664507071</v>
+        <v>0.01517586686671233</v>
       </c>
       <c r="T26">
-        <v>0.03084507664507072</v>
+        <v>0.01517586686671233</v>
       </c>
     </row>
   </sheetData>
